--- a/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
+++ b/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1508AB-AE8F-49C5-A413-3C6BA64329C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C544E7-66C2-4144-BD73-CD3D1C9937A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTile" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>Estrada</t>
+  </si>
+  <si>
+    <t>EA 23.145</t>
+  </si>
+  <si>
+    <t>海底</t>
+  </si>
+  <si>
+    <t>Under Sea</t>
+  </si>
+  <si>
+    <t>Debaixo do Mar</t>
   </si>
 </sst>
 </file>
@@ -583,11 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +890,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
+++ b/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C544E7-66C2-4144-BD73-CD3D1C9937A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31881FBC-4AC7-4C1F-ACBD-6D9C29407019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="1155" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTile" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Debaixo do Mar</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,194 +708,194 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
+      <c r="A18" t="s">
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -908,7 +911,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H18">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
+++ b/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31881FBC-4AC7-4C1F-ACBD-6D9C29407019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A292C0-D7DA-471F-9023-890BC8F62856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1155" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTile" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
